--- a/cypress/downloads/monthly_borrowing_trend.xlsx
+++ b/cypress/downloads/monthly_borrowing_trend.xlsx
@@ -455,7 +455,7 @@
         <v>Jun</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
